--- a/Documenten/UserStories.xlsx
+++ b/Documenten/UserStories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cools\Documents\GitHub\Pomodoro\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maaike\Desktop\integratieproject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t xml:space="preserve">Een gebruiker kan zoeken naar thema's en diens sessies (zoeken op naam, omschrijving, tags)    </t>
+  </si>
+  <si>
+    <t>Belangrijkheidsgraad</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Totaal kost</t>
   </si>
 </sst>
 </file>
@@ -462,18 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="103.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,213 +499,702 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>E2*C2</f>
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <f>F2*C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="0">E3*C3</f>
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="1">F3*C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>24</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27">
         <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C1:C27)</f>
+        <v>68.5</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="D29:F29" si="2">SUM(E1:E27)</f>
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <f>SUM(G1:G27)</f>
+        <v>37</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H1:H27)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <f>G29</f>
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <f>H29</f>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>
@@ -721,5 +1226,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>